--- a/JeanPiaget/Actividades/Datos_JP.xlsx
+++ b/JeanPiaget/Actividades/Datos_JP.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\afchavez19\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="12435"/>
   </bookViews>
@@ -15,7 +10,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$J$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$H$89</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="100">
   <si>
     <t>Nombre</t>
   </si>
@@ -321,6 +316,12 @@
   </si>
   <si>
     <t>Ara Roa</t>
+  </si>
+  <si>
+    <t>Camila</t>
+  </si>
+  <si>
+    <t>Valeria</t>
   </si>
 </sst>
 </file>
@@ -630,7 +631,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -638,10 +639,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H87"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,7 +674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -698,7 +700,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -720,11 +722,11 @@
       <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -746,11 +748,11 @@
       <c r="G4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -772,11 +774,11 @@
       <c r="G5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -798,11 +800,11 @@
       <c r="G6" t="s">
         <v>16</v>
       </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -824,11 +826,11 @@
       <c r="G7" t="s">
         <v>16</v>
       </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -850,11 +852,11 @@
       <c r="G8" t="s">
         <v>16</v>
       </c>
-      <c r="H8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -880,7 +882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -902,11 +904,11 @@
       <c r="G10" t="s">
         <v>16</v>
       </c>
-      <c r="H10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -928,11 +930,11 @@
       <c r="G11" t="s">
         <v>16</v>
       </c>
-      <c r="H11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -954,11 +956,11 @@
       <c r="G12" t="s">
         <v>16</v>
       </c>
-      <c r="H12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -980,11 +982,11 @@
       <c r="G13">
         <v>24</v>
       </c>
-      <c r="H13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1006,11 +1008,11 @@
       <c r="G14" t="s">
         <v>16</v>
       </c>
-      <c r="H14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1032,11 +1034,11 @@
       <c r="G15" t="s">
         <v>16</v>
       </c>
-      <c r="H15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1062,7 +1064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -1088,7 +1090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1110,11 +1112,11 @@
       <c r="G18" t="s">
         <v>16</v>
       </c>
-      <c r="H18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1136,65 +1138,65 @@
       <c r="G19" t="s">
         <v>16</v>
       </c>
-      <c r="H19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="B20">
         <v>510</v>
       </c>
-      <c r="C20">
-        <v>16</v>
+      <c r="C20" t="s">
+        <v>10</v>
       </c>
       <c r="D20">
+        <v>9.5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21">
+        <v>510</v>
+      </c>
+      <c r="C21">
+        <v>16</v>
+      </c>
+      <c r="D21">
         <v>8</v>
       </c>
-      <c r="E20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>32</v>
-      </c>
-      <c r="B21">
-        <v>420</v>
-      </c>
-      <c r="C21">
-        <v>16</v>
-      </c>
-      <c r="D21">
-        <v>9</v>
-      </c>
-      <c r="E21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>33</v>
       </c>
       <c r="B22">
         <v>420</v>
@@ -1203,36 +1205,36 @@
         <v>16</v>
       </c>
       <c r="D22">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G22" t="s">
         <v>16</v>
       </c>
       <c r="H22">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23">
         <v>420</v>
       </c>
       <c r="C23">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D23">
-        <v>9.5</v>
+        <v>8.4</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
         <v>15</v>
@@ -1241,12 +1243,12 @@
         <v>16</v>
       </c>
       <c r="H23">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24">
         <v>420</v>
@@ -1261,157 +1263,157 @@
         <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H24">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25">
         <v>420</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25">
+        <v>9.5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26">
+        <v>420</v>
+      </c>
+      <c r="C26">
+        <v>16</v>
+      </c>
+      <c r="D26">
         <v>9.6999999999999993</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <v>1</v>
       </c>
-      <c r="F25">
+      <c r="F26">
         <v>0</v>
       </c>
-      <c r="G25">
+      <c r="G26">
         <v>1</v>
       </c>
-      <c r="H25">
+      <c r="H26">
         <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26">
-        <v>610</v>
-      </c>
-      <c r="C26">
-        <v>18</v>
-      </c>
-      <c r="D26">
-        <v>9.4</v>
-      </c>
-      <c r="E26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26">
-        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>610</v>
       </c>
       <c r="C27">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D27">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G27" t="s">
         <v>15</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28">
         <v>610</v>
       </c>
       <c r="C28">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D28">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F28" t="s">
         <v>16</v>
       </c>
       <c r="G28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H28">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29">
         <v>610</v>
       </c>
       <c r="C29">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D29">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
       </c>
       <c r="G29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H29">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30">
         <v>610</v>
       </c>
       <c r="C30">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D30">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -1423,12 +1425,12 @@
         <v>15</v>
       </c>
       <c r="H30">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31">
         <v>610</v>
@@ -1437,24 +1439,24 @@
         <v>18</v>
       </c>
       <c r="D31">
-        <v>8.6999999999999993</v>
+        <v>9</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G31" t="s">
         <v>15</v>
       </c>
       <c r="H31">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32">
         <v>610</v>
@@ -1463,59 +1465,59 @@
         <v>18</v>
       </c>
       <c r="D32">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s">
+        <v>15</v>
       </c>
       <c r="H32">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33">
         <v>610</v>
       </c>
       <c r="C33">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D33">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="E33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" t="s">
-        <v>16</v>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34">
         <v>610</v>
       </c>
       <c r="C34">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D34">
-        <v>8.9</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="E34" t="s">
         <v>13</v>
@@ -1527,64 +1529,64 @@
         <v>16</v>
       </c>
       <c r="H34">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35">
         <v>610</v>
       </c>
       <c r="C35">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
+        <v>8.9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G35" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H35">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B36">
         <v>610</v>
       </c>
       <c r="C36">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D36">
-        <v>8</v>
-      </c>
-      <c r="E36" t="s">
-        <v>13</v>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H36">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>610</v>
@@ -1593,24 +1595,24 @@
         <v>18</v>
       </c>
       <c r="D37">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H37">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B38">
         <v>610</v>
@@ -1619,24 +1621,24 @@
         <v>18</v>
       </c>
       <c r="D38">
-        <v>9.3000000000000007</v>
+        <v>9.5</v>
       </c>
       <c r="E38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G38" t="s">
         <v>15</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B39">
         <v>610</v>
@@ -1645,120 +1647,120 @@
         <v>18</v>
       </c>
       <c r="D39">
-        <v>7.8</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="E39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H39">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B40">
         <v>610</v>
       </c>
       <c r="C40">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D40">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F40" t="s">
         <v>16</v>
       </c>
       <c r="G40" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B41">
         <v>610</v>
       </c>
       <c r="C41">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D41">
-        <v>8.3000000000000007</v>
+        <v>8.5</v>
       </c>
       <c r="E41" t="s">
         <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G41" t="s">
         <v>16</v>
       </c>
       <c r="H41">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>610</v>
       </c>
-      <c r="C42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" t="s">
-        <v>10</v>
+      <c r="C42">
+        <v>18</v>
+      </c>
+      <c r="D42">
+        <v>8.3000000000000007</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G42" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H42">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B43">
         <v>610</v>
       </c>
-      <c r="C43">
-        <v>18</v>
-      </c>
-      <c r="D43">
-        <v>7.9</v>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G43" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H43">
         <v>5</v>
@@ -1766,59 +1768,59 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44">
+        <v>610</v>
+      </c>
+      <c r="C44">
+        <v>18</v>
+      </c>
+      <c r="D44">
+        <v>7.9</v>
+      </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>55</v>
       </c>
-      <c r="B44">
+      <c r="B45">
         <v>420</v>
       </c>
-      <c r="C44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44">
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45">
         <v>5.9</v>
       </c>
-      <c r="E44" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" t="s">
-        <v>16</v>
-      </c>
-      <c r="H44">
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45">
         <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45">
-        <v>610</v>
-      </c>
-      <c r="C45">
-        <v>18</v>
-      </c>
-      <c r="D45">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="E45" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
-      <c r="H45">
-        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B46">
         <v>610</v>
@@ -1830,56 +1832,56 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="E46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H46">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47">
+        <v>610</v>
+      </c>
+      <c r="C47">
+        <v>18</v>
+      </c>
+      <c r="D47">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>57</v>
-      </c>
-      <c r="B47">
-        <v>420</v>
-      </c>
-      <c r="C47">
-        <v>16</v>
-      </c>
-      <c r="D47">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="E47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s">
-        <v>15</v>
-      </c>
-      <c r="H47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>58</v>
       </c>
       <c r="B48">
         <v>420</v>
       </c>
       <c r="C48">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D48">
-        <v>7.9</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E48" t="s">
         <v>13</v>
@@ -1888,67 +1890,67 @@
         <v>16</v>
       </c>
       <c r="G48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H48">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B49">
         <v>420</v>
       </c>
       <c r="C49">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D49">
-        <v>6.9</v>
+        <v>7.9</v>
       </c>
       <c r="E49" t="s">
         <v>13</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G49" t="s">
         <v>16</v>
       </c>
       <c r="H49">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B50">
         <v>420</v>
       </c>
       <c r="C50">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D50">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="E50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H50">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B51">
         <v>420</v>
@@ -1969,38 +1971,38 @@
         <v>15</v>
       </c>
       <c r="H51">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B52">
         <v>420</v>
       </c>
       <c r="C52">
-        <v>16</v>
-      </c>
-      <c r="D52" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="D52">
+        <v>7.5</v>
       </c>
       <c r="E52" t="s">
         <v>14</v>
       </c>
       <c r="F52" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G52" t="s">
         <v>15</v>
       </c>
       <c r="H52">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B53">
         <v>420</v>
@@ -2008,25 +2010,25 @@
       <c r="C53">
         <v>16</v>
       </c>
-      <c r="D53">
-        <v>9.5</v>
+      <c r="D53" t="s">
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F53" t="s">
         <v>15</v>
       </c>
       <c r="G53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H53">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B54">
         <v>420</v>
@@ -2035,7 +2037,7 @@
         <v>16</v>
       </c>
       <c r="D54">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="E54" t="s">
         <v>13</v>
@@ -2044,15 +2046,15 @@
         <v>15</v>
       </c>
       <c r="G54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H54">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B55">
         <v>420</v>
@@ -2061,24 +2063,24 @@
         <v>16</v>
       </c>
       <c r="D55">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H55">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B56">
         <v>420</v>
@@ -2087,7 +2089,7 @@
         <v>16</v>
       </c>
       <c r="D56">
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
       <c r="E56" t="s">
         <v>14</v>
@@ -2096,24 +2098,24 @@
         <v>16</v>
       </c>
       <c r="G56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H56">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>420</v>
       </c>
-      <c r="C57" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" t="s">
-        <v>10</v>
+      <c r="C57">
+        <v>16</v>
+      </c>
+      <c r="D57">
+        <v>9.1</v>
       </c>
       <c r="E57" t="s">
         <v>14</v>
@@ -2125,38 +2127,38 @@
         <v>15</v>
       </c>
       <c r="H57">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58">
         <v>420</v>
       </c>
-      <c r="C58">
-        <v>16</v>
-      </c>
-      <c r="D58">
-        <v>9.6999999999999993</v>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
       </c>
       <c r="E58" t="s">
         <v>14</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G58" t="s">
         <v>15</v>
       </c>
       <c r="H58">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59">
         <v>420</v>
@@ -2165,33 +2167,33 @@
         <v>16</v>
       </c>
       <c r="D59">
-        <v>7.2</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="E59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F59" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H59">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60">
         <v>420</v>
       </c>
       <c r="C60">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D60">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="E60" t="s">
         <v>13</v>
@@ -2203,21 +2205,21 @@
         <v>16</v>
       </c>
       <c r="H60">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61">
         <v>420</v>
       </c>
       <c r="C61">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D61">
-        <v>8.3000000000000007</v>
+        <v>7.8</v>
       </c>
       <c r="E61" t="s">
         <v>13</v>
@@ -2229,21 +2231,21 @@
         <v>16</v>
       </c>
       <c r="H61">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62">
         <v>420</v>
       </c>
-      <c r="C62" t="s">
-        <v>10</v>
+      <c r="C62">
+        <v>16</v>
       </c>
       <c r="D62">
-        <v>8.6</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E62" t="s">
         <v>13</v>
@@ -2255,12 +2257,12 @@
         <v>16</v>
       </c>
       <c r="H62">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63">
         <v>420</v>
@@ -2269,59 +2271,59 @@
         <v>10</v>
       </c>
       <c r="D63">
+        <v>8.6</v>
+      </c>
+      <c r="E63" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64">
+        <v>420</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64">
         <v>7</v>
       </c>
-      <c r="E63" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G63" t="s">
-        <v>16</v>
-      </c>
-      <c r="H63">
+      <c r="E64" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" t="s">
+        <v>16</v>
+      </c>
+      <c r="H64">
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>75</v>
-      </c>
-      <c r="B64">
-        <v>410</v>
-      </c>
-      <c r="C64">
-        <v>15</v>
-      </c>
-      <c r="D64">
-        <v>9.5</v>
-      </c>
-      <c r="E64" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" t="s">
-        <v>15</v>
-      </c>
-      <c r="G64" t="s">
-        <v>16</v>
-      </c>
-      <c r="H64">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>76</v>
       </c>
       <c r="B65">
         <v>410</v>
       </c>
-      <c r="C65" t="s">
-        <v>10</v>
+      <c r="C65">
+        <v>15</v>
       </c>
       <c r="D65">
-        <v>8.1999999999999993</v>
+        <v>9.5</v>
       </c>
       <c r="E65" t="s">
         <v>13</v>
@@ -2333,21 +2335,21 @@
         <v>16</v>
       </c>
       <c r="H65">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B66">
         <v>410</v>
       </c>
-      <c r="C66">
-        <v>16</v>
+      <c r="C66" t="s">
+        <v>10</v>
       </c>
       <c r="D66">
-        <v>8.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E66" t="s">
         <v>13</v>
@@ -2359,12 +2361,12 @@
         <v>16</v>
       </c>
       <c r="H66">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B67">
         <v>410</v>
@@ -2373,7 +2375,7 @@
         <v>16</v>
       </c>
       <c r="D67">
-        <v>7.4</v>
+        <v>8.1</v>
       </c>
       <c r="E67" t="s">
         <v>13</v>
@@ -2385,21 +2387,21 @@
         <v>16</v>
       </c>
       <c r="H67">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B68">
         <v>410</v>
       </c>
       <c r="C68">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D68">
-        <v>9.1999999999999993</v>
+        <v>7.4</v>
       </c>
       <c r="E68" t="s">
         <v>13</v>
@@ -2411,12 +2413,12 @@
         <v>16</v>
       </c>
       <c r="H68">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B69">
         <v>410</v>
@@ -2425,33 +2427,33 @@
         <v>15</v>
       </c>
       <c r="D69">
-        <v>8.8000000000000007</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E69" t="s">
         <v>13</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G69" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H69">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B70">
         <v>410</v>
       </c>
       <c r="C70">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D70">
-        <v>8.5</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E70" t="s">
         <v>13</v>
@@ -2460,15 +2462,15 @@
         <v>16</v>
       </c>
       <c r="G70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H70">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B71">
         <v>410</v>
@@ -2477,24 +2479,24 @@
         <v>16</v>
       </c>
       <c r="D71">
-        <v>8.6999999999999993</v>
+        <v>8.5</v>
       </c>
       <c r="E71" t="s">
         <v>13</v>
       </c>
       <c r="F71" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G71" t="s">
         <v>16</v>
       </c>
       <c r="H71">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B72">
         <v>410</v>
@@ -2503,7 +2505,7 @@
         <v>16</v>
       </c>
       <c r="D72">
-        <v>7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E72" t="s">
         <v>13</v>
@@ -2515,21 +2517,21 @@
         <v>16</v>
       </c>
       <c r="H72">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B73">
         <v>410</v>
       </c>
       <c r="C73">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D73">
-        <v>9.6</v>
+        <v>7</v>
       </c>
       <c r="E73" t="s">
         <v>13</v>
@@ -2541,125 +2543,125 @@
         <v>16</v>
       </c>
       <c r="H73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B74">
         <v>410</v>
       </c>
       <c r="C74">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D74">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
+        <v>9.6</v>
+      </c>
+      <c r="E74" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74" t="s">
+        <v>16</v>
       </c>
       <c r="H74">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B75">
         <v>410</v>
       </c>
       <c r="C75">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D75">
-        <v>9.6</v>
-      </c>
-      <c r="E75" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" t="s">
-        <v>15</v>
-      </c>
-      <c r="G75" t="s">
-        <v>16</v>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B76">
         <v>410</v>
       </c>
-      <c r="C76" t="s">
-        <v>10</v>
-      </c>
-      <c r="D76" t="s">
-        <v>10</v>
+      <c r="C76">
+        <v>15</v>
+      </c>
+      <c r="D76">
+        <v>9.6</v>
       </c>
       <c r="E76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G76" t="s">
         <v>16</v>
       </c>
       <c r="H76">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B77">
         <v>410</v>
       </c>
-      <c r="C77">
-        <v>16</v>
-      </c>
-      <c r="D77">
-        <v>8.8000000000000007</v>
+      <c r="C77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" t="s">
+        <v>10</v>
       </c>
       <c r="E77" t="s">
         <v>13</v>
       </c>
       <c r="F77" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G77" t="s">
         <v>16</v>
       </c>
       <c r="H77">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B78">
         <v>410</v>
       </c>
-      <c r="C78" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" t="s">
-        <v>10</v>
+      <c r="C78">
+        <v>16</v>
+      </c>
+      <c r="D78">
+        <v>8.8000000000000007</v>
       </c>
       <c r="E78" t="s">
         <v>13</v>
@@ -2671,64 +2673,64 @@
         <v>16</v>
       </c>
       <c r="H78">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B79">
         <v>410</v>
       </c>
-      <c r="C79">
-        <v>16</v>
-      </c>
-      <c r="D79">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
+      <c r="C79" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" t="s">
+        <v>16</v>
       </c>
       <c r="H79">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B80">
         <v>410</v>
       </c>
       <c r="C80">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D80">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="E80" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" t="s">
-        <v>15</v>
-      </c>
-      <c r="G80" t="s">
-        <v>16</v>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B81">
         <v>410</v>
@@ -2737,24 +2739,24 @@
         <v>15</v>
       </c>
       <c r="D81">
-        <v>7.6</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G81" t="s">
         <v>16</v>
       </c>
       <c r="H81">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="B82">
         <v>410</v>
@@ -2763,36 +2765,36 @@
         <v>15</v>
       </c>
       <c r="D82">
-        <v>8.8000000000000007</v>
+        <v>7.6</v>
       </c>
       <c r="E82" t="s">
         <v>14</v>
       </c>
       <c r="F82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G82" t="s">
         <v>16</v>
       </c>
       <c r="H82">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="B83">
         <v>410</v>
       </c>
       <c r="C83">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D83">
         <v>8.8000000000000007</v>
       </c>
       <c r="E83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F83" t="s">
         <v>15</v>
@@ -2801,21 +2803,21 @@
         <v>16</v>
       </c>
       <c r="H83">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B84">
         <v>410</v>
       </c>
       <c r="C84">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D84">
-        <v>9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E84" t="s">
         <v>13</v>
@@ -2827,88 +2829,147 @@
         <v>16</v>
       </c>
       <c r="H84">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B85">
         <v>410</v>
       </c>
       <c r="C85">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D85">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="E85">
-        <v>1</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="E85" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" t="s">
+        <v>15</v>
+      </c>
+      <c r="G85" t="s">
+        <v>16</v>
       </c>
       <c r="H85">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B86">
         <v>410</v>
       </c>
-      <c r="C86" t="s">
-        <v>10</v>
-      </c>
-      <c r="D86" t="s">
-        <v>10</v>
-      </c>
-      <c r="E86" t="s">
-        <v>14</v>
-      </c>
-      <c r="F86" t="s">
-        <v>15</v>
-      </c>
-      <c r="G86" t="s">
-        <v>13</v>
+      <c r="C86">
+        <v>16</v>
+      </c>
+      <c r="D86">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B87">
         <v>410</v>
       </c>
-      <c r="C87">
-        <v>15</v>
-      </c>
-      <c r="D87">
+      <c r="C87" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" t="s">
+        <v>15</v>
+      </c>
+      <c r="G87" t="s">
+        <v>13</v>
+      </c>
+      <c r="H87">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>97</v>
+      </c>
+      <c r="B88">
+        <v>410</v>
+      </c>
+      <c r="C88">
+        <v>15</v>
+      </c>
+      <c r="D88">
         <v>9.6999999999999993</v>
       </c>
-      <c r="E87">
+      <c r="E88">
         <v>0</v>
       </c>
-      <c r="F87">
+      <c r="F88">
         <v>0</v>
       </c>
-      <c r="G87">
+      <c r="G88">
         <v>0</v>
       </c>
-      <c r="H87">
+      <c r="H88">
         <v>49</v>
       </c>
     </row>
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>99</v>
+      </c>
+      <c r="B89">
+        <v>510</v>
+      </c>
+      <c r="C89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" t="s">
+        <v>10</v>
+      </c>
+      <c r="H89">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:H89">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="610"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>